--- a/Data/Diet_Data.xlsx
+++ b/Data/Diet_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icracuk-my.sharepoint.com/personal/reuben_frost_icr_ac_uk/Documents/Documents/UK-cancer-trends/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{842BF6B1-0832-49F7-93DF-7C0DBB95EA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{842BF6B1-0832-49F7-93DF-7C0DBB95EA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C21ADAA6-F216-4E7C-9720-67AC36DE5924}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="105" windowWidth="38640" windowHeight="21240" xr2:uid="{227FB179-494F-4F5D-8B22-B9ED3F41D79B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{227FB179-494F-4F5D-8B22-B9ED3F41D79B}"/>
   </bookViews>
   <sheets>
     <sheet name="UK_Fibre" sheetId="1" r:id="rId1"/>
@@ -762,13 +762,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD4209D-AD11-4926-B696-19DDD58B528E}">
   <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -779,7 +780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -799,7 +800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -822,7 +823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>16</v>
       </c>
@@ -839,12 +840,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -873,7 +874,7 @@
         <v>0.78689600000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -893,7 +894,7 @@
         <v>9.6957012534770204</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -913,7 +914,7 @@
         <v>3.5464567572059602</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -933,7 +934,7 @@
         <v>4.74989238284964</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -953,7 +954,7 @@
         <v>17.694026823488102</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -982,12 +983,12 @@
         <v>7.8292000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1016,7 +1017,7 @@
         <v>1.4073404</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1036,7 +1037,7 @@
         <v>14.535806923980299</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>4.5584953319973804</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>7.6761536345338302</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>25.7046381970287</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1125,12 +1126,12 @@
         <v>13.764760000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1159,7 +1160,7 @@
         <v>0.89884759999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>12.727299436483801</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>4.2550262776504404</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1219,7 +1220,7 @@
         <v>6.6226553759176001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1239,7 +1240,7 @@
         <v>23.0353347857701</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1268,12 +1269,12 @@
         <v>6.3581599999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>0.92221679999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>13.8079707428359</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1342,7 +1343,7 @@
         <v>4.4788761322853796</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -1362,7 +1363,7 @@
         <v>6.9202403306323204</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1382,7 +1383,7 @@
         <v>24.205403201143799</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1411,12 +1412,12 @@
         <v>8.44116</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -1445,7 +1446,7 @@
         <v>1.1155192</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>15.563319908813099</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>5.8388117820562799</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -1505,7 +1506,7 @@
         <v>8.0377132651358902</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -1525,7 +1526,7 @@
         <v>29.560775035536398</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>25</v>
       </c>
@@ -1554,12 +1555,12 @@
         <v>3.3811200000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -1588,7 +1589,7 @@
         <v>2.3212519999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1608,7 +1609,7 @@
         <v>14.9431146430244</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -1628,7 +1629,7 @@
         <v>5.1662709508819704</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -1648,7 +1649,7 @@
         <v>7.1423663799758099</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -1668,7 +1669,7 @@
         <v>27.854157053552999</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -1697,12 +1698,12 @@
         <v>5.5346399999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -1731,7 +1732,7 @@
         <v>1.3787836</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>15.191833146544401</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -1771,7 +1772,7 @@
         <v>5.5413739709538596</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>21</v>
       </c>
@@ -1791,7 +1792,7 @@
         <v>7.2885570354850104</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>22</v>
       </c>
@@ -1811,7 +1812,7 @@
         <v>29.3985233176275</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>25</v>
       </c>
@@ -1840,12 +1841,12 @@
         <v>3.21828</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -1874,7 +1875,7 @@
         <v>2.2162632000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>19.835939023171399</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>9.1479965418591505</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -1934,7 +1935,7 @@
         <v>8.1879328787414494</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -1954,7 +1955,7 @@
         <v>42.684403620974201</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>25</v>
       </c>
@@ -1983,12 +1984,12 @@
         <v>4.4073599999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>18</v>
       </c>
@@ -2017,7 +2018,7 @@
         <v>1.6732984</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -2037,7 +2038,7 @@
         <v>17.178548865951001</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -2057,7 +2058,7 @@
         <v>7.1705944968008</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>21</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>6.8246289984857098</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>22</v>
       </c>
@@ -2097,7 +2098,7 @@
         <v>35.763398854950402</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -2126,12 +2127,12 @@
         <v>3.9834399999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2160,7 +2161,7 @@
         <v>1.6753948000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -2180,7 +2181,7 @@
         <v>18.490791032429001</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -2200,7 +2201,7 @@
         <v>8.3579300043456204</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -2220,7 +2221,7 @@
         <v>7.2847869933425198</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>22</v>
       </c>
@@ -2240,7 +2241,7 @@
         <v>39.6682406130045</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>25</v>
       </c>
@@ -2269,12 +2270,12 @@
         <v>3.3833600000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -2303,7 +2304,7 @@
         <v>2.6490127999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>19.700866281487698</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -2343,7 +2344,7 @@
         <v>6.79465417406443</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>21</v>
       </c>
@@ -2363,7 +2364,7 @@
         <v>8.8108627554217591</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -2383,7 +2384,7 @@
         <v>35.470935188208003</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>25</v>
       </c>
@@ -2412,12 +2413,12 @@
         <v>7.4421600000000003</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -2446,7 +2447,7 @@
         <v>2.9249811999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -2466,7 +2467,7 @@
         <v>16.753250402087399</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -2486,7 +2487,7 @@
         <v>6.8878191363362298</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>7.50475879693923</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>35.658920117543602</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>25</v>
       </c>
@@ -2555,12 +2556,12 @@
         <v>4.6754800000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -2589,7 +2590,7 @@
         <v>2.4094123999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>17.962137948643299</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -2629,7 +2630,7 @@
         <v>6.9532766680667502</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>21</v>
       </c>
@@ -2649,7 +2650,7 @@
         <v>8.3046596328421796</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -2669,7 +2670,7 @@
         <v>35.672028347978497</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>25</v>
       </c>
@@ -2698,12 +2699,12 @@
         <v>4.23292</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -2732,7 +2733,7 @@
         <v>3.5486856000000002</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -2752,7 +2753,7 @@
         <v>20.492756720664101</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -2772,7 +2773,7 @@
         <v>6.66623913065684</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>21</v>
       </c>
@@ -2792,7 +2793,7 @@
         <v>9.2122451694548904</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>22</v>
       </c>
@@ -2812,7 +2813,7 @@
         <v>35.716645469177102</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>25</v>
       </c>
@@ -2841,12 +2842,12 @@
         <v>12.802239999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -2875,7 +2876,7 @@
         <v>3.3735696000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -2895,7 +2896,7 @@
         <v>17.6754858169265</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -2915,7 +2916,7 @@
         <v>7.5155076276447099</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>21</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>7.73297823373208</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>22</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>38.935502160683697</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>25</v>
       </c>
@@ -2984,12 +2985,12 @@
         <v>8.0717599999999994</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>18</v>
       </c>
@@ -3018,7 +3019,7 @@
         <v>2.8694364000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>18.663926137717699</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -3058,7 +3059,7 @@
         <v>7.2249837745819097</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>21</v>
       </c>
@@ -3078,7 +3079,7 @@
         <v>8.5950858863597208</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>22</v>
       </c>
@@ -3098,7 +3099,7 @@
         <v>35.761012858909503</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>25</v>
       </c>
@@ -3127,12 +3128,12 @@
         <v>7.8265599999999997</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -3161,7 +3162,7 @@
         <v>2.6239460000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>19</v>
       </c>
@@ -3181,7 +3182,7 @@
         <v>18.254635378224901</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -3201,7 +3202,7 @@
         <v>6.7850082914472498</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>21</v>
       </c>
@@ -3221,7 +3222,7 @@
         <v>8.4414819017313505</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>22</v>
       </c>
@@ -3241,7 +3242,7 @@
         <v>32.406283668594902</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>25</v>
       </c>
@@ -3270,12 +3271,12 @@
         <v>6.8320800000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>18</v>
       </c>
@@ -3304,7 +3305,7 @@
         <v>3.6506504</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -3324,7 +3325,7 @@
         <v>14.858077952784001</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>20</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>5.6487869877888999</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>21</v>
       </c>
@@ -3364,7 +3365,7 @@
         <v>7.3882706326987</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>22</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>27.5820819619485</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>25</v>
       </c>
@@ -3413,12 +3414,12 @@
         <v>2.9244400000000002</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>18</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>2.4974759999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>19</v>
       </c>
@@ -3467,7 +3468,7 @@
         <v>16.524853381187999</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>20</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>6.2532773151382601</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>21</v>
       </c>
@@ -3507,7 +3508,7 @@
         <v>7.4418067302254203</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>22</v>
       </c>
@@ -3527,7 +3528,7 @@
         <v>30.078957699524199</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>25</v>
       </c>
